--- a/results/Results Tables.xlsx
+++ b/results/Results Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Desktop\parental_exercise_MA\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\MA_exercise_Yefeng\Scripts\Intergenerational_effect_of_exercise_MA_Git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A6C255-14DE-4FCC-AA84-02B99C1C9BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB6D7C-2203-4DED-BBA9-21DAAAAEBE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="105">
   <si>
     <t>Effect size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,9 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prenantal</t>
-  </si>
-  <si>
     <t>adolescence</t>
   </si>
   <si>
@@ -116,319 +113,331 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>AIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model diagnoisc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduced structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sigma2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurobehavior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning-MWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory-MWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory-NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anxiety-EPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anxiety-OFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neurogenesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDNF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrkB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEGF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reelin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GFAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synapsin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heterogeneity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moderator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mixed-sex F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voluntary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lnRR</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>lnCVR</t>
+  </si>
+  <si>
+    <t>early postnatal</t>
+  </si>
+  <si>
+    <t>Intercept-only</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Univariate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>trait category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>within-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 trait cateforoy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 between-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 within-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain development</t>
+  </si>
+  <si>
+    <t>Brain size</t>
+  </si>
+  <si>
+    <t>Neurogenesis</t>
+  </si>
+  <si>
+    <t>within-study</t>
+  </si>
+  <si>
+    <t>Brain Growth factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain growth factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>between-study</t>
+  </si>
+  <si>
+    <t>Variance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercise timing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exercised sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offspring sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offspring ontogenetic stage</t>
+  </si>
+  <si>
+    <t>Offspring ontogenetic stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Growth factors</t>
+  </si>
+  <si>
+    <t>BDNF</t>
+  </si>
+  <si>
+    <t>TrkB</t>
+  </si>
+  <si>
+    <t>VEGF</t>
+  </si>
+  <si>
+    <t>trait category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait category removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between-study removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>within-study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>within-study removed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pre-conception</t>
-  </si>
-  <si>
-    <t>pregnancy</t>
-  </si>
-  <si>
-    <t>pre-conception to pregnancy</t>
-  </si>
-  <si>
-    <t>pre-conception to post-partum</t>
-  </si>
-  <si>
-    <t>AIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p-value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model diagnoisc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_type removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>study ID removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect size ID removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain ID removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain removed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N-levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduced structure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sigma2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurobehavior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning-MWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory-MWM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memory-NOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anxiety-EPM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anxiety-OFT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brain development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brain size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neurogenesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Growth factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDNF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrkB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VEGF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reelin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GFAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>synapsin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heterogeneity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Male F0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female F0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moderator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Male F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Female F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mixed-sex F1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voluntary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pre-conception to pregnancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lnRR</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>lnCVR</t>
-  </si>
-  <si>
-    <t>early postnatal</t>
-  </si>
-  <si>
-    <t>Intercept-only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Univariate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>trait category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>within-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>between-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 trait cateforoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 between-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 within-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brain development</t>
-  </si>
-  <si>
-    <t>Brain size</t>
-  </si>
-  <si>
-    <t>Neurogenesis</t>
-  </si>
-  <si>
-    <t>within-study</t>
-  </si>
-  <si>
-    <t>Brain Growth factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brain growth factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trait category</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>between-study</t>
-  </si>
-  <si>
-    <t>Variance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exercise mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exercise timing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exercised sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offspring sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offspring ontogenetic stage</t>
-  </si>
-  <si>
-    <t>Offspring ontogenetic stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Growth factors</t>
-  </si>
-  <si>
-    <t>BDNF</t>
-  </si>
-  <si>
-    <t>TrkB</t>
-  </si>
-  <si>
-    <t>VEGF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre to pregnancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre to post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prenanal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,13 +646,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513B72A-4787-4F44-B427-A7BA5E849F06}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -944,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -958,31 +970,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -993,7 +1005,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1004,7 +1016,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1015,7 +1027,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1025,7 +1037,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="4"/>
@@ -1036,10 +1048,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1050,7 +1062,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1061,7 +1073,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1071,7 +1083,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="4"/>
@@ -1082,10 +1094,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1096,7 +1108,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1107,7 +1119,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1117,7 +1129,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="4"/>
@@ -1128,10 +1140,10 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1142,7 +1154,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1153,7 +1165,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1163,7 +1175,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="4"/>
@@ -1174,10 +1186,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1188,7 +1200,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1199,7 +1211,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1209,7 +1221,7 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="4"/>
@@ -1220,10 +1232,10 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1233,10 +1245,10 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1246,7 +1258,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="4"/>
@@ -1257,10 +1269,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1270,10 +1282,10 @@
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1292,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA63FD2-DD7F-46CD-979A-24975EAD28B3}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1313,7 +1325,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1335,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -1347,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -1375,21 +1387,21 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1397,21 +1409,11 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.185</v>
-      </c>
-      <c r="G4" s="8">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="I4" s="8">
-        <v>93</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8052</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1423,21 +1425,11 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>-0.13400000000000001</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.249</v>
-      </c>
-      <c r="H5" s="8">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>93</v>
-      </c>
-      <c r="J5" s="8">
-        <v>8052</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -1455,7 +1447,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1463,21 +1455,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.152</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-2.1999999999999999E-2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8">
-        <v>3421</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -1489,21 +1471,11 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.122</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.255</v>
-      </c>
-      <c r="I8" s="8">
-        <v>34</v>
-      </c>
-      <c r="J8" s="8">
-        <v>3421</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -1521,7 +1493,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1529,21 +1501,11 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="G10" s="8">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="I10" s="8">
-        <v>39</v>
-      </c>
-      <c r="J10" s="8">
-        <v>2551</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1555,21 +1517,11 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
-        <v>-0.21199999999999999</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.40600000000000003</v>
-      </c>
-      <c r="H11" s="8">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>39</v>
-      </c>
-      <c r="J11" s="8">
-        <v>2551</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -1585,11 +1537,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -1597,21 +1549,11 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="I13" s="8">
-        <v>34</v>
-      </c>
-      <c r="J13" s="8">
-        <v>828</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -1623,21 +1565,11 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
-        <v>-0.29299999999999998</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.57499999999999996</v>
-      </c>
-      <c r="H14" s="8">
-        <v>-0.01</v>
-      </c>
-      <c r="I14" s="8">
-        <v>34</v>
-      </c>
-      <c r="J14" s="8">
-        <v>828</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -1655,7 +1587,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -1663,21 +1595,11 @@
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-4.7E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I16" s="8">
-        <v>19</v>
-      </c>
-      <c r="J16" s="8">
-        <v>442</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -1689,21 +1611,11 @@
       <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.37</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="I17" s="8">
-        <v>19</v>
-      </c>
-      <c r="J17" s="8">
-        <v>442</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -1721,7 +1633,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -1729,21 +1641,11 @@
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
-        <v>0.107</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I19" s="8">
-        <v>42</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1628</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -1755,21 +1657,11 @@
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I20" s="8">
-        <v>42</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1628</v>
-      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1785,11 +1677,11 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
@@ -1797,21 +1689,11 @@
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="G22" s="8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I22" s="8">
-        <v>83</v>
-      </c>
-      <c r="J22" s="8">
-        <v>2861</v>
-      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1823,21 +1705,11 @@
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="8">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="G23" s="8">
-        <v>-0.23899999999999999</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="I23" s="8">
-        <v>83</v>
-      </c>
-      <c r="J23" s="8">
-        <v>2861</v>
-      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -1855,7 +1727,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -1863,21 +1735,11 @@
       <c r="E25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="8">
-        <v>0.215</v>
-      </c>
-      <c r="G25" s="8">
-        <v>-0.02</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="I25" s="8">
-        <v>11</v>
-      </c>
-      <c r="J25" s="8">
-        <v>276</v>
-      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -1889,21 +1751,11 @@
       <c r="E26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="8">
-        <v>-0.11899999999999999</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-0.85399999999999998</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="I26" s="8">
-        <v>11</v>
-      </c>
-      <c r="J26" s="8">
-        <v>276</v>
-      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -1921,7 +1773,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -1929,21 +1781,11 @@
       <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="8">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="G28" s="8">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="I28" s="8">
-        <v>37</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1435</v>
-      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
@@ -1955,21 +1797,11 @@
       <c r="E29" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="12">
-        <v>0.313</v>
-      </c>
-      <c r="G29" s="12">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="I29" s="12">
-        <v>37</v>
-      </c>
-      <c r="J29" s="12">
-        <v>1435</v>
-      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1984,7 +1816,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F4" sqref="F4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2003,7 +1835,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2021,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -2033,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2057,21 +1889,21 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2079,21 +1911,11 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="I4" s="8">
-        <v>101</v>
-      </c>
-      <c r="J4" s="8">
-        <v>6495</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
@@ -2102,21 +1924,11 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>-0.153</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="H5" s="8">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>101</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6495</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" s="8"/>
@@ -2128,7 +1940,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -2136,21 +1948,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.129</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <v>65</v>
-      </c>
-      <c r="J7" s="8">
-        <v>7530</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
@@ -2159,21 +1961,11 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.17899999999999999</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="I8" s="8">
-        <v>65</v>
-      </c>
-      <c r="J8" s="8">
-        <v>7530</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" s="8"/>
@@ -2184,10 +1976,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2195,21 +1987,11 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G10" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="I10" s="8">
-        <v>56</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1650</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
@@ -2218,21 +2000,11 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
-        <v>-0.29699999999999999</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.52</v>
-      </c>
-      <c r="H11" s="8">
-        <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>56</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1650</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
@@ -2243,7 +2015,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -2251,21 +2023,11 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="I13" s="8">
-        <v>39</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1060</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
@@ -2274,21 +2036,11 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
-        <v>0.127</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.11899999999999999</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.374</v>
-      </c>
-      <c r="I14" s="8">
-        <v>39</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1060</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
@@ -2299,10 +2051,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -2310,21 +2062,11 @@
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
-        <v>0.251</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="I16" s="8">
-        <v>79</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2729</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
@@ -2333,21 +2075,11 @@
       <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.29199999999999998</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="I17" s="8">
-        <v>79</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2729</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
@@ -2358,7 +2090,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -2366,21 +2098,11 @@
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I19" s="8">
-        <v>52</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1887</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
@@ -2392,21 +2114,11 @@
       <c r="E20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G20" s="12">
-        <v>-0.34899999999999998</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="I20" s="12">
-        <v>52</v>
-      </c>
-      <c r="J20" s="12">
-        <v>1887</v>
-      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -2420,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F66DAF-79F2-41C4-A065-1AE691345AE7}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2441,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -2467,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -2479,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2502,21 +2214,21 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2524,21 +2236,11 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.217</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="I4" s="8">
-        <v>40</v>
-      </c>
-      <c r="J4" s="8">
-        <v>2074</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -2550,21 +2252,11 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>-9.9000000000000005E-2</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="H5" s="8">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>40</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2074</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -2582,7 +2274,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -2590,21 +2282,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.106</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="I7" s="8">
-        <v>87</v>
-      </c>
-      <c r="J7" s="8">
-        <v>4596</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -2616,21 +2298,11 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.221</v>
-      </c>
-      <c r="H8" s="8">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>87</v>
-      </c>
-      <c r="J8" s="8">
-        <v>4596</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -2648,7 +2320,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2656,21 +2328,11 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <v>37</v>
-      </c>
-      <c r="J10" s="8">
-        <v>7226</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -2682,21 +2344,11 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
-        <v>-0.11</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.29099999999999998</v>
-      </c>
-      <c r="H11" s="8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>37</v>
-      </c>
-      <c r="J11" s="8">
-        <v>7226</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -2713,7 +2365,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -2721,21 +2373,11 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-0.317</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1.143</v>
-      </c>
-      <c r="I13" s="8">
-        <v>2</v>
-      </c>
-      <c r="J13" s="8">
-        <v>66</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -2747,21 +2389,11 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.64200000000000002</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="I14" s="8">
-        <v>2</v>
-      </c>
-      <c r="J14" s="8">
-        <v>66</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2777,59 +2409,38 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
+      <c r="C16" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I16" s="8">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8">
-        <v>176</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.39700000000000002</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.441</v>
-      </c>
-      <c r="I17" s="8">
-        <v>15</v>
-      </c>
-      <c r="J17" s="13">
-        <v>176</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -2846,56 +2457,36 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
+      <c r="C19" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="I19" s="8">
-        <v>56</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1806</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="8">
-        <v>-0.22800000000000001</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-0.49299999999999999</v>
-      </c>
-      <c r="H20" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I20" s="8">
-        <v>56</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1806</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2910,56 +2501,36 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="10" t="s">
-        <v>22</v>
+      <c r="C22" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2.4E-2</v>
-      </c>
-      <c r="G22" s="8">
-        <v>-0.126</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="I22" s="8">
-        <v>16</v>
-      </c>
-      <c r="J22" s="8">
-        <v>448</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="8">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="G23" s="8">
-        <v>-0.40200000000000002</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I23" s="8">
-        <v>16</v>
-      </c>
-      <c r="J23" s="8">
-        <v>448</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -2976,56 +2547,36 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="10" t="s">
-        <v>23</v>
+      <c r="C25" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="8">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="G25" s="8">
-        <v>-0.182</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="I25" s="8">
-        <v>8</v>
-      </c>
-      <c r="J25" s="8">
-        <v>464</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-0.50600000000000001</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="I26" s="8">
-        <v>8</v>
-      </c>
-      <c r="J26" s="8">
-        <v>464</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3041,64 +2592,44 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>20</v>
+      <c r="C28" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G28" s="8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="I28" s="8">
-        <v>45</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1289</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.371</v>
-      </c>
-      <c r="G29" s="8">
-        <v>-0.315</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="I29" s="8">
-        <v>45</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1289</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="8"/>
@@ -3110,61 +2641,41 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="10" t="s">
-        <v>21</v>
+      <c r="C31" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.48</v>
-      </c>
-      <c r="I31" s="8">
-        <v>59</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2019</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="G32" s="8">
-        <v>-0.46200000000000002</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="I32" s="8">
-        <v>59</v>
-      </c>
-      <c r="J32" s="8">
-        <v>2019</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="8"/>
@@ -3176,61 +2687,41 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="10" t="s">
-        <v>22</v>
+      <c r="C34" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.105</v>
-      </c>
-      <c r="G34" s="8">
-        <v>-0.17100000000000001</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I34" s="8">
-        <v>19</v>
-      </c>
-      <c r="J34" s="8">
-        <v>934</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="G35" s="8">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="I35" s="8">
-        <v>19</v>
-      </c>
-      <c r="J35" s="8">
-        <v>934</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="8"/>
@@ -3242,56 +2733,36 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="10" t="s">
-        <v>23</v>
+      <c r="C37" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.222</v>
-      </c>
-      <c r="G37" s="8">
-        <v>-0.28399999999999997</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="I37" s="8">
-        <v>8</v>
-      </c>
-      <c r="J37" s="8">
-        <v>432</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="G38" s="12">
-        <v>-0.69299999999999995</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1.452</v>
-      </c>
-      <c r="I38" s="12">
-        <v>8</v>
-      </c>
-      <c r="J38" s="12">
-        <v>432</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3305,8 +2776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D280F09-0689-4AA2-94C9-00DCE761C32C}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3325,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3351,10 +2822,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -3363,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -3395,21 +2866,21 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -3418,19 +2889,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -3444,19 +2915,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -3475,7 +2946,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -3483,21 +2954,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="G7" s="8">
-        <v>-0.08</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.505</v>
-      </c>
-      <c r="I7" s="8">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
-        <v>200</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -3509,21 +2970,11 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
-        <v>-0.17699999999999999</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.50600000000000001</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.152</v>
-      </c>
-      <c r="I8" s="8">
-        <v>10</v>
-      </c>
-      <c r="J8" s="8">
-        <v>200</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -3541,7 +2992,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -3549,21 +3000,11 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="G10" s="8">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="I10" s="8">
-        <v>98</v>
-      </c>
-      <c r="J10" s="8">
-        <v>5842</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -3575,21 +3016,11 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="H11" s="8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>98</v>
-      </c>
-      <c r="J11" s="8">
-        <v>5842</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -3606,7 +3037,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -3614,21 +3045,11 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.215</v>
-      </c>
-      <c r="G13" s="8">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="I13" s="8">
-        <v>58</v>
-      </c>
-      <c r="J13" s="8">
-        <v>5921</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3640,21 +3061,11 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
-        <v>-0.13500000000000001</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.28499999999999998</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I14" s="8">
-        <v>58</v>
-      </c>
-      <c r="J14" s="8">
-        <v>5921</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3670,59 +3081,38 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="10" t="s">
-        <v>12</v>
+      <c r="C16" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-0.19</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="I16" s="8">
-        <v>11</v>
-      </c>
-      <c r="J16" s="8">
-        <v>488</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="8">
-        <v>-0.19400000000000001</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.80900000000000005</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="I17" s="8">
-        <v>11</v>
-      </c>
-      <c r="J17" s="13">
-        <v>488</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -3740,55 +3130,35 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.13</v>
-      </c>
-      <c r="G19" s="8">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I19" s="8">
-        <v>28</v>
-      </c>
-      <c r="J19" s="8">
-        <v>886</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="8">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="G20" s="8">
-        <v>-0.379</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="I20" s="8">
-        <v>28</v>
-      </c>
-      <c r="J20" s="8">
-        <v>886</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -3804,55 +3174,35 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G22" s="8">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I22" s="8">
-        <v>39</v>
-      </c>
-      <c r="J22" s="8">
-        <v>878</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="8">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="G23" s="8">
-        <v>-0.44900000000000001</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>39</v>
-      </c>
-      <c r="J23" s="8">
-        <v>878</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -3870,55 +3220,35 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="G25" s="8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="I25" s="8">
-        <v>17</v>
-      </c>
-      <c r="J25" s="8">
-        <v>658</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.108</v>
-      </c>
-      <c r="G26" s="8">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.502</v>
-      </c>
-      <c r="I26" s="8">
-        <v>17</v>
-      </c>
-      <c r="J26" s="8">
-        <v>658</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3934,59 +3264,39 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="10" t="s">
-        <v>12</v>
+      <c r="C28" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="I28" s="8">
-        <v>14</v>
-      </c>
-      <c r="J28" s="8">
-        <v>613</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="G29" s="8">
-        <v>-0.46200000000000002</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="I29" s="8">
-        <v>14</v>
-      </c>
-      <c r="J29" s="8">
-        <v>613</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -4004,55 +3314,35 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.246</v>
-      </c>
-      <c r="G31" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="I31" s="8">
-        <v>17</v>
-      </c>
-      <c r="J31" s="8">
-        <v>640</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="10"/>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G32" s="8">
-        <v>-0.63300000000000001</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.87</v>
-      </c>
-      <c r="I32" s="8">
-        <v>17</v>
-      </c>
-      <c r="J32" s="8">
-        <v>640</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -4070,55 +3360,35 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G34" s="8">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="I34" s="8">
-        <v>81</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2861</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="10"/>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0.371</v>
-      </c>
-      <c r="G35" s="8">
-        <v>-0.315</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="I35" s="8">
-        <v>81</v>
-      </c>
-      <c r="J35" s="8">
-        <v>2861</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -4136,55 +3406,35 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0.222</v>
-      </c>
-      <c r="G37" s="8">
-        <v>-0.28399999999999997</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="I37" s="8">
-        <v>19</v>
-      </c>
-      <c r="J37" s="8">
-        <v>592</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.38</v>
-      </c>
-      <c r="G38" s="12">
-        <v>-0.69299999999999995</v>
-      </c>
-      <c r="H38" s="12">
-        <v>1.452</v>
-      </c>
-      <c r="I38" s="12">
-        <v>19</v>
-      </c>
-      <c r="J38" s="12">
-        <v>592</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -4199,7 +3449,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4217,26 +3467,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -4267,18 +3517,18 @@
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4320,7 +3570,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -4363,7 +3613,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -4406,7 +3656,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -4449,7 +3699,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -4492,7 +3742,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -4548,7 +3798,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="A1:XFD1048576"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4566,18 +3816,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -4592,7 +3842,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -4603,37 +3853,37 @@
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -4647,7 +3897,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4661,7 +3911,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4675,7 +3925,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4687,11 +3937,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4705,7 +3955,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -4718,7 +3968,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4730,11 +3980,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4747,7 +3997,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4761,7 +4011,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4773,11 +4023,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4791,7 +4041,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4805,7 +4055,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -4817,11 +4067,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4833,32 +4083,32 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -4883,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E973CF2-6EA7-493C-89EA-3654EE00F181}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4902,78 +4152,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>99</v>
+      <c r="I2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G4" s="4"/>
+      <c r="I4" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
@@ -4981,11 +4241,16 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G5" s="4"/>
+      <c r="I5" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
       <c r="N5" s="4"/>
@@ -4993,260 +4258,439 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G6" s="4"/>
+      <c r="I6" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G8" s="4"/>
+      <c r="I8" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G9" s="4"/>
+      <c r="I9" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G10" s="4"/>
+      <c r="I10" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G11" s="4"/>
+      <c r="I11" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="G12" s="4"/>
+      <c r="I12" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G14" s="4"/>
+      <c r="I14" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="G15" s="4"/>
+      <c r="I15" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" s="4"/>
+      <c r="I16" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="G31" s="8"/>
+      <c r="I31" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="F37" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -5283,26 +4727,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -5333,18 +4777,18 @@
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5377,7 +4821,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -5410,7 +4854,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -5482,18 +4926,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -5508,7 +4952,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -5519,37 +4963,37 @@
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5563,7 +5007,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5577,7 +5021,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5591,7 +5035,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5603,11 +5047,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5621,7 +5065,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -5634,7 +5078,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -5646,11 +5090,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -5663,7 +5107,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5677,7 +5121,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -5781,26 +5225,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
@@ -5831,18 +5275,18 @@
         <v>7</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5875,7 +5319,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -5908,7 +5352,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -5941,7 +5385,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -5974,7 +5418,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -6007,7 +5451,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -6035,7 +5479,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -6104,18 +5548,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6130,7 +5574,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -6141,37 +5585,37 @@
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -6185,7 +5629,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -6199,7 +5643,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -6213,7 +5657,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -6225,11 +5669,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6244,7 +5688,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6258,7 +5702,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6270,11 +5714,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -6288,7 +5732,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6303,7 +5747,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -6315,11 +5759,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -6334,7 +5778,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6349,7 +5793,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -6361,11 +5805,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -6378,47 +5822,47 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L24" s="4"/>
     </row>
@@ -6426,7 +5870,7 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -6452,7 +5896,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F4" sqref="F4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6472,7 +5916,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6491,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -6503,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -6528,23 +5972,23 @@
         <v>7</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -6552,21 +5996,11 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8">
-        <v>0.247</v>
-      </c>
-      <c r="G4" s="8">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="I4" s="8">
-        <v>29</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1516</v>
-      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
@@ -6577,21 +6011,11 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
-        <v>-0.09</v>
-      </c>
-      <c r="G5" s="8">
-        <v>-0.30199999999999999</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.121</v>
-      </c>
-      <c r="I5" s="8">
-        <v>29</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1516</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
@@ -6607,7 +6031,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -6615,21 +6039,11 @@
       <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I7" s="8">
-        <v>137</v>
-      </c>
-      <c r="J7" s="8">
-        <v>12446</v>
-      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
@@ -6640,21 +6054,11 @@
       <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
-        <v>-0.111</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.20899999999999999</v>
-      </c>
-      <c r="H8" s="8">
-        <v>-1.2999999999999999E-2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>137</v>
-      </c>
-      <c r="J8" s="8">
-        <v>12446</v>
-      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
@@ -6669,10 +6073,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -6680,21 +6084,11 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
-        <v>0.114</v>
-      </c>
-      <c r="G10" s="8">
-        <v>-7.8E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
-      <c r="J10" s="8">
-        <v>96</v>
-      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
@@ -6705,21 +6099,11 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
-        <v>-0.28599999999999998</v>
-      </c>
-      <c r="G11" s="8">
-        <v>-0.86899999999999999</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="I11" s="8">
-        <v>6</v>
-      </c>
-      <c r="J11" s="8">
-        <v>96</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
@@ -6734,7 +6118,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -6742,21 +6126,11 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="G13" s="8">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="I13" s="8">
-        <v>89</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2798</v>
-      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
@@ -6767,21 +6141,11 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="G14" s="8">
-        <v>-0.28399999999999997</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="I14" s="8">
-        <v>89</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2798</v>
-      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
@@ -6796,10 +6160,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -6807,21 +6171,11 @@
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
-        <v>0.129</v>
-      </c>
-      <c r="G16" s="8">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="I16" s="8">
-        <v>29</v>
-      </c>
-      <c r="J16" s="8">
-        <v>986</v>
-      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
@@ -6832,21 +6186,11 @@
       <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8">
-        <v>0.495</v>
-      </c>
-      <c r="G17" s="8">
-        <v>-0.215</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="I17" s="8">
-        <v>29</v>
-      </c>
-      <c r="J17" s="8">
-        <v>986</v>
-      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
@@ -6861,7 +6205,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -6869,21 +6213,11 @@
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="8">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="G19" s="8">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="I19" s="8">
-        <v>102</v>
-      </c>
-      <c r="J19" s="8">
-        <v>3714</v>
-      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
@@ -6897,21 +6231,11 @@
       <c r="E20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="G20" s="12">
-        <v>-0.45500000000000002</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="I20" s="12">
-        <v>102</v>
-      </c>
-      <c r="J20" s="12">
-        <v>3714</v>
-      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>

--- a/results/Results Tables.xlsx
+++ b/results/Results Tables.xlsx
@@ -8,26 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\MA_exercise_Yefeng\Scripts\Intergenerational_effect_of_exercise_MA_Git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB6D7C-2203-4DED-BBA9-21DAAAAEBE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6655E-DFCC-4E4F-B8A9-97E52470998B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="8" r:id="rId1"/>
     <sheet name="Q1-behavior-fixed" sheetId="1" r:id="rId2"/>
     <sheet name="Q1-behavior-random" sheetId="11" r:id="rId3"/>
-    <sheet name="R-square" sheetId="14" r:id="rId4"/>
-    <sheet name="Q1-brain development-fixed" sheetId="9" r:id="rId5"/>
-    <sheet name="Q1-brain development-random" sheetId="12" r:id="rId6"/>
-    <sheet name="Q1-genes-fixed" sheetId="10" r:id="rId7"/>
-    <sheet name="Q1-genes-random" sheetId="13" r:id="rId8"/>
-    <sheet name="Q2-F0_sex" sheetId="4" r:id="rId9"/>
-    <sheet name="Q3-F1_sex" sheetId="5" r:id="rId10"/>
-    <sheet name="Q4-mode" sheetId="6" r:id="rId11"/>
-    <sheet name="Q5-window" sheetId="7" r:id="rId12"/>
-    <sheet name="Q6-ontogenetic_stage" sheetId="3" r:id="rId13"/>
+    <sheet name="R-square_genes" sheetId="14" r:id="rId4"/>
+    <sheet name="R-square_behavior" sheetId="22" r:id="rId5"/>
+    <sheet name="R-square_brain development" sheetId="21" r:id="rId6"/>
+    <sheet name="Q1-D-fixed" sheetId="9" r:id="rId7"/>
+    <sheet name="Q1-brain development-random" sheetId="12" r:id="rId8"/>
+    <sheet name="Q1-genes-fixed" sheetId="10" r:id="rId9"/>
+    <sheet name="Q1-genes-random" sheetId="13" r:id="rId10"/>
+    <sheet name="Q2-F0_sex" sheetId="4" r:id="rId11"/>
+    <sheet name="Q2-F0_sex_contrast" sheetId="15" r:id="rId12"/>
+    <sheet name="Q3-F1_sex" sheetId="5" r:id="rId13"/>
+    <sheet name="Q3-F1_sex_contrast" sheetId="16" r:id="rId14"/>
+    <sheet name="Q4-mode" sheetId="6" r:id="rId15"/>
+    <sheet name="Q4-mode_contrast" sheetId="17" r:id="rId16"/>
+    <sheet name="Q5-window" sheetId="7" r:id="rId17"/>
+    <sheet name="Q5-window_contrast" sheetId="18" r:id="rId18"/>
+    <sheet name="Q6-ontogenetic_stage" sheetId="3" r:id="rId19"/>
+    <sheet name="Q6-ontogenetic_stage_contrast" sheetId="19" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="114">
   <si>
     <t>Effect size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Forced</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voluntary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lnRR</t>
   </si>
   <si>
@@ -292,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Univariate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -437,6 +432,51 @@
   </si>
   <si>
     <t>prenanal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slope (Difference)</t>
+  </si>
+  <si>
+    <t>Slope (Difference)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forced exercise</t>
+  </si>
+  <si>
+    <t>Forced exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voluntary exercise</t>
+  </si>
+  <si>
+    <t>Voluntary exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>early postnatal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QM statistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QM ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -650,6 +690,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -985,7 +1028,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1005,7 +1048,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1016,7 +1059,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1027,7 +1070,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1048,10 +1091,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1062,7 +1105,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1073,7 +1116,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1094,10 +1137,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1108,7 +1151,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1119,7 +1162,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1143,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1154,7 +1197,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1165,7 +1208,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1186,10 +1229,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1200,7 +1243,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1211,7 +1254,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1232,10 +1275,10 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1245,10 +1288,10 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1269,10 +1312,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1285,7 +1328,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1301,11 +1344,1272 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE929E5F-CDBF-4689-B4E8-74771374295B}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD223911-7261-475A-8F1F-B70EA391EE44}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="4"/>
+    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.4140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D1D0A-B2F5-4667-90E5-9E1BBD13B9F5}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="4"/>
+    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.4140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA63FD2-DD7F-46CD-979A-24975EAD28B3}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1398,7 +2702,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>55</v>
@@ -1677,7 +2981,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
@@ -1811,12 +3115,522 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD95BEBB-C62E-44DA-AB2F-793CA98A0EFD}">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="13"/>
+    <col min="2" max="2" width="8" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="13"/>
+    <col min="5" max="5" width="7.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="6" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.58203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="4.9140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D5BB4C-DD31-42F2-B888-F0F5D7D20E15}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1900,10 +3714,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>105</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -1939,8 +3753,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>59</v>
+      <c r="C7" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1978,8 +3792,8 @@
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
+      <c r="C10" s="38" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2014,8 +3828,8 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>59</v>
+      <c r="C13" s="38" t="s">
+        <v>109</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -2051,10 +3865,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -2089,8 +3903,8 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
-        <v>59</v>
+      <c r="C19" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -2128,12 +3942,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C34961-F5D5-4243-864F-5EA39BA58AE0}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.4140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="4"/>
+    <col min="7" max="8" width="6.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.08203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F66DAF-79F2-41C4-A065-1AE691345AE7}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2225,10 +4355,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2320,7 +4450,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2365,7 +4495,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -2413,13 +4543,13 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2432,10 +4562,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2461,10 +4591,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2477,10 +4607,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -2502,13 +4632,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2521,10 +4651,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2548,13 +4678,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2567,10 +4697,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2592,17 +4722,17 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2615,10 +4745,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2645,10 +4775,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2661,10 +4791,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2688,13 +4818,13 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2707,10 +4837,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2734,13 +4864,13 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2753,10 +4883,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -2772,12 +4902,655 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5215D2A-F7A1-496A-8A0D-30ED537A4C6D}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.08203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="5" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+    </row>
+    <row r="2" spans="1:19" s="25" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D280F09-0689-4AA2-94C9-00DCE761C32C}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2877,10 +5650,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2889,19 +5662,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2915,19 +5688,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2946,7 +5719,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -3085,13 +5858,13 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -3104,10 +5877,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -3130,13 +5903,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -3149,10 +5922,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -3177,10 +5950,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -3193,10 +5966,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -3223,10 +5996,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -3239,10 +6012,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -3264,17 +6037,17 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -3287,10 +6060,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -3314,13 +6087,13 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -3333,10 +6106,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="10"/>
       <c r="D32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -3363,10 +6136,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -3379,10 +6152,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="10"/>
       <c r="D35" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -3409,10 +6182,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -3425,10 +6198,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -3467,19 +6240,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -3528,7 +6301,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -3790,6 +6563,677 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B90FCF-B9E6-465E-ABAB-9F9673716660}">
+  <dimension ref="A1:S39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="13"/>
+    <col min="5" max="5" width="7.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="13" customWidth="1"/>
+    <col min="7" max="8" width="5.6640625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="3.4140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3816,18 +7260,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -3865,16 +7309,16 @@
         <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3883,7 +7327,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3897,7 +7341,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3911,7 +7355,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3925,7 +7369,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3941,7 +7385,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -3955,7 +7399,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -3968,7 +7412,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3984,7 +7428,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3997,7 +7441,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4011,7 +7455,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4027,7 +7471,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4041,7 +7485,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4055,7 +7499,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -4071,7 +7515,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -4083,12 +7527,12 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4096,19 +7540,19 @@
         <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -4133,8 +7577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E973CF2-6EA7-493C-89EA-3654EE00F181}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4142,8 +7586,8 @@
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="4" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
@@ -4152,18 +7596,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -4176,64 +7620,48 @@
         <v>53</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>89</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="4"/>
-      <c r="I4" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="I4" s="8"/>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
@@ -4241,16 +7669,12 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="F5" s="8"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="I5" s="8"/>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
       <c r="N5" s="4"/>
@@ -4258,442 +7682,298 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="F9" s="8"/>
       <c r="G9" s="4"/>
-      <c r="I9" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="4"/>
-      <c r="I10" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="I11" s="8"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="4"/>
-      <c r="I12" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
-      <c r="I14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
-      <c r="I15" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="34"/>
-      <c r="F16" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
-      <c r="I16" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="I16" s="8"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>86</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="I31" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -4705,11 +7985,960 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3A2E1-7313-456B-9DE7-9CB4C4205276}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="8"/>
+      <c r="J37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E758A58-1D99-402D-B07F-F171AD7F81BA}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712C001D-F815-477F-B9DB-DD71176CC495}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4727,19 +8956,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -4788,7 +9017,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -4903,12 +9132,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25DD415-0761-42F6-9AE9-DE08A92658F8}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4926,18 +9155,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -4975,25 +9204,25 @@
         <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5007,7 +9236,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5021,7 +9250,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5035,7 +9264,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -5047,11 +9276,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5065,7 +9294,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -5078,7 +9307,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -5090,11 +9319,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -5107,7 +9336,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -5121,7 +9350,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -5202,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD775C6-A537-4923-A022-89661CD7C2E8}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -5225,19 +9454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -5286,7 +9515,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -5523,818 +9752,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE929E5F-CDBF-4689-B4E8-74771374295B}">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD223911-7261-475A-8F1F-B70EA391EE44}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13" style="4" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="4"/>
-    <col min="5" max="5" width="7.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.4140625" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/results/Results Tables.xlsx
+++ b/results/Results Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\MA_exercise_Yefeng\Scripts\Intergenerational_effect_of_exercise_MA_Git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D6655E-DFCC-4E4F-B8A9-97E52470998B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CAF98-EC1A-41BD-AA72-65E1DD3DFB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="8" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="Q5-window_contrast" sheetId="18" r:id="rId18"/>
     <sheet name="Q6-ontogenetic_stage" sheetId="3" r:id="rId19"/>
     <sheet name="Q6-ontogenetic_stage_contrast" sheetId="19" r:id="rId20"/>
+    <sheet name="correlation" sheetId="23" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="115">
   <si>
     <t>Effect size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +478,10 @@
   </si>
   <si>
     <t>QM ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,6 +543,15 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -618,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +712,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1366,18 +1381,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6222,7 +6237,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6240,19 +6255,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6571,7 +6586,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7237,12 +7252,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C8A81A-CDBD-46CE-ACD7-3D1E08E25B42}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF094A-E262-46AF-8A1F-0B2C06831E30}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7260,18 +7336,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -7596,18 +7672,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -7989,24 +8065,24 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -8533,8 +8609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E758A58-1D99-402D-B07F-F171AD7F81BA}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8552,18 +8628,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -8956,19 +9032,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -9155,18 +9231,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -9454,19 +9530,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">

--- a/results/Results Tables.xlsx
+++ b/results/Results Tables.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\MA_exercise_Yefeng\Scripts\Intergenerational_effect_of_exercise_MA_Git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CAF98-EC1A-41BD-AA72-65E1DD3DFB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BFA8F3-9E01-4EB6-9CDF-08191FC02B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="8" r:id="rId1"/>
     <sheet name="Q1-behavior-fixed" sheetId="1" r:id="rId2"/>
     <sheet name="Q1-behavior-random" sheetId="11" r:id="rId3"/>
-    <sheet name="R-square_genes" sheetId="14" r:id="rId4"/>
-    <sheet name="R-square_behavior" sheetId="22" r:id="rId5"/>
-    <sheet name="R-square_brain development" sheetId="21" r:id="rId6"/>
-    <sheet name="Q1-D-fixed" sheetId="9" r:id="rId7"/>
+    <sheet name="R-square_behavior" sheetId="22" r:id="rId4"/>
+    <sheet name="R-square_brain development" sheetId="21" r:id="rId5"/>
+    <sheet name="R-square_genes" sheetId="14" r:id="rId6"/>
+    <sheet name="Q1-brain development-fixed" sheetId="9" r:id="rId7"/>
     <sheet name="Q1-brain development-random" sheetId="12" r:id="rId8"/>
     <sheet name="Q1-genes-fixed" sheetId="10" r:id="rId9"/>
     <sheet name="Q1-genes-random" sheetId="13" r:id="rId10"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="119">
   <si>
     <t>Effect size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,22 +295,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>trait category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>within-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>between-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I2 trait cateforoy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,6 +466,37 @@
   </si>
   <si>
     <t>p value</t>
+  </si>
+  <si>
+    <t>Maximum lnRR</t>
+  </si>
+  <si>
+    <t>Neurobehavior</t>
+  </si>
+  <si>
+    <t>Brain growth factors</t>
+  </si>
+  <si>
+    <t>Brain 
+development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain 
+growth factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain 
+growth 
+factors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trait category</t>
+  </si>
+  <si>
+    <t>I2 trait categoroy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,6 +504,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,7 +564,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -632,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -713,9 +731,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1043,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1052,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1063,7 +1090,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1074,7 +1101,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1085,7 +1112,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1106,10 +1133,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1120,7 +1147,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1131,7 +1158,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1152,10 +1179,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1166,7 +1193,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1177,7 +1204,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1201,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1212,7 +1239,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1223,7 +1250,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1244,10 +1271,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1258,7 +1285,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1269,7 +1296,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1290,10 +1317,10 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1303,10 +1330,10 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1327,10 +1354,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1343,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1362,16 +1389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE929E5F-CDBF-4689-B4E8-74771374295B}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.58203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
@@ -1381,18 +1408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -1430,42 +1457,62 @@
         <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>45.6</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1476,10 +1523,14 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>28</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1490,10 +1541,14 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.372</v>
+      </c>
+      <c r="E7" s="8">
+        <v>131</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1506,25 +1561,43 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.496</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>81.7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45.8</v>
+      </c>
+      <c r="I8" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="J8" s="4">
+        <v>12.3</v>
+      </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>23</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1535,10 +1608,14 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>60</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1551,24 +1628,42 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>62.8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>62.8</v>
+      </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>6</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1580,10 +1675,14 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1596,25 +1695,43 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>62.7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>55.9</v>
+      </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1626,10 +1743,14 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.309</v>
+      </c>
+      <c r="E16" s="8">
+        <v>25</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1642,26 +1763,52 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="E17" s="33">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="J17" s="4">
+        <v>34.5</v>
+      </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1669,19 +1816,52 @@
         <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1689,13 +1869,40 @@
         <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>66.5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="I23" s="1">
+        <v>38.6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>12.4</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
       </c>
       <c r="L24" s="4"/>
     </row>
@@ -1703,10 +1910,14 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="D25" s="11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E25" s="11">
+        <v>8</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1729,7 +1940,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1818,7 +2029,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>51</v>
@@ -1993,7 +2204,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>51</v>
@@ -2177,12 +2388,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F4" sqref="F4:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.4140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="4"/>
@@ -2266,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>51</v>
@@ -2318,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2333,7 +2544,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2363,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2378,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2405,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2420,7 +2631,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -2441,7 +2652,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="38" t="s">
         <v>51</v>
@@ -2450,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2465,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2492,7 +2703,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2510,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2616,6 +2827,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2717,7 +2929,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>55</v>
@@ -2996,7 +3208,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
@@ -3134,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD95BEBB-C62E-44DA-AB2F-793CA98A0EFD}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3228,7 +3440,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>55</v>
@@ -3239,11 +3451,21 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.185</v>
+      </c>
+      <c r="G4" s="8">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="I4" s="8">
+        <v>93</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1596</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -3255,11 +3477,21 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="8">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-0.249</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>93</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1596</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -3283,13 +3515,23 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-0.224</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="I7" s="8">
+        <v>34</v>
+      </c>
+      <c r="J7" s="8">
+        <v>633</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -3299,13 +3541,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="I8" s="8">
+        <v>34</v>
+      </c>
+      <c r="J8" s="8">
+        <v>633</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -3329,13 +3581,23 @@
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="I10" s="8">
+        <v>39</v>
+      </c>
+      <c r="J10" s="8">
+        <v>515</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -3345,13 +3607,23 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F11" s="8">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I11" s="8">
+        <v>39</v>
+      </c>
+      <c r="J11" s="8">
+        <v>515</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -3379,11 +3651,21 @@
       <c r="E13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="F13" s="8">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>34</v>
+      </c>
+      <c r="J13" s="8">
+        <v>345</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3395,11 +3677,21 @@
       <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="F14" s="8">
+        <v>-0.29299999999999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="H14" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="I14" s="8">
+        <v>34</v>
+      </c>
+      <c r="J14" s="8">
+        <v>345</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3423,13 +3715,23 @@
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>19</v>
+      </c>
+      <c r="J16" s="8">
+        <v>202</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -3439,13 +3741,23 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="I17" s="8">
+        <v>19</v>
+      </c>
+      <c r="J17" s="8">
+        <v>202</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -3469,13 +3781,23 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="8">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>42</v>
+      </c>
+      <c r="J19" s="8">
+        <v>650</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -3485,13 +3807,23 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="I20" s="8">
+        <v>42</v>
+      </c>
+      <c r="J20" s="8">
+        <v>650</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -3507,7 +3839,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
@@ -3519,11 +3851,21 @@
       <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="F22" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G22" s="8">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I22" s="8">
+        <v>83</v>
+      </c>
+      <c r="J22" s="8">
+        <v>696</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -3535,11 +3877,21 @@
       <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="F23" s="8">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-0.23899999999999999</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I23" s="8">
+        <v>83</v>
+      </c>
+      <c r="J23" s="8">
+        <v>696</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -3563,13 +3915,23 @@
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-0.17899999999999999</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I25" s="8">
+        <v>11</v>
+      </c>
+      <c r="J25" s="8">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -3579,13 +3941,23 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F26" s="8">
+        <v>-0.46800000000000003</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-0.98</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I26" s="8">
+        <v>11</v>
+      </c>
+      <c r="J26" s="8">
+        <v>116</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -3609,13 +3981,23 @@
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I28" s="8">
+        <v>37</v>
+      </c>
+      <c r="J28" s="8">
+        <v>336</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
@@ -3625,13 +4007,23 @@
         <v>10</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F29" s="12">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="H29" s="12">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="I29" s="12">
+        <v>37</v>
+      </c>
+      <c r="J29" s="12">
+        <v>336</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -3645,7 +4037,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3729,10 +4121,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -3769,7 +4161,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -3808,7 +4200,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -3844,7 +4236,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -3880,10 +4272,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -3919,7 +4311,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -3962,14 +4354,14 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C4" sqref="C4:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.4140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="4"/>
@@ -4046,10 +4438,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -4057,11 +4449,21 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I4" s="8">
+        <v>101</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1365</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
@@ -4070,11 +4472,21 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="8">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-0.26800000000000002</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>101</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1365</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" s="8"/>
@@ -4086,32 +4498,52 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-0.10199999999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1354</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-5.8000000000000003E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1354</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E9" s="8"/>
@@ -4125,7 +4557,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -4133,11 +4565,21 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I10" s="8">
+        <v>56</v>
+      </c>
+      <c r="J10" s="8">
+        <v>773</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
@@ -4146,11 +4588,21 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="8">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-0.52</v>
+      </c>
+      <c r="H11" s="8">
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>56</v>
+      </c>
+      <c r="J11" s="8">
+        <v>773</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
@@ -4161,32 +4613,52 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-0.183</v>
+      </c>
+      <c r="H13" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8">
+        <v>425</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.747</v>
+      </c>
+      <c r="I14" s="8">
+        <v>39</v>
+      </c>
+      <c r="J14" s="8">
+        <v>425</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F15" s="8"/>
@@ -4197,10 +4669,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -4208,11 +4680,21 @@
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="I16" s="8">
+        <v>79</v>
+      </c>
+      <c r="J16" s="8">
+        <v>731</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
@@ -4221,11 +4703,21 @@
       <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="F17" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I17" s="8">
+        <v>79</v>
+      </c>
+      <c r="J17" s="8">
+        <v>731</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F18" s="8"/>
@@ -4236,19 +4728,29 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.17399999999999999</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I19" s="8">
+        <v>52</v>
+      </c>
+      <c r="J19" s="8">
+        <v>413</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
@@ -4258,13 +4760,23 @@
         <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F20" s="12">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>52</v>
+      </c>
+      <c r="J20" s="12">
+        <v>413</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -4370,10 +4882,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -4465,7 +4977,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -4510,7 +5022,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -4558,7 +5070,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
@@ -4647,7 +5159,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
@@ -4693,7 +5205,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>58</v>
@@ -4737,11 +5249,11 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>58</v>
@@ -4833,7 +5345,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>58</v>
@@ -4879,7 +5391,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="37" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>58</v>
@@ -4921,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5215D2A-F7A1-496A-8A0D-30ED537A4C6D}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5014,10 +5526,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -5025,11 +5537,21 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="I4" s="8">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8">
+        <v>711</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -5041,11 +5563,21 @@
       <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="8">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>-0.32700000000000001</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>40</v>
+      </c>
+      <c r="J5" s="8">
+        <v>711</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -5069,13 +5601,23 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-0.193</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="I7" s="8">
+        <v>87</v>
+      </c>
+      <c r="J7" s="8">
+        <v>998</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -5085,13 +5627,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="I8" s="8">
+        <v>87</v>
+      </c>
+      <c r="J8" s="8">
+        <v>998</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -5109,19 +5661,29 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F10" s="8">
+        <v>-0.17</v>
+      </c>
+      <c r="G10" s="8">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>37</v>
+      </c>
+      <c r="J10" s="8">
+        <v>987</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -5131,13 +5693,23 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-0.218</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="I11" s="8">
+        <v>37</v>
+      </c>
+      <c r="J11" s="8">
+        <v>987</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -5154,19 +5726,29 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -5176,13 +5758,23 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.226</v>
+      </c>
+      <c r="I14" s="8">
+        <v>2</v>
+      </c>
+      <c r="J14" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -5196,13 +5788,13 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
+    <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
@@ -5210,11 +5802,21 @@
       <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8">
+        <v>110</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -5226,10 +5828,21 @@
       <c r="E17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="F17" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-0.315</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="I17" s="8">
+        <v>15</v>
+      </c>
+      <c r="J17" s="13">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -5253,13 +5866,23 @@
         <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I19" s="8">
+        <v>56</v>
+      </c>
+      <c r="J19" s="8">
+        <v>512</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -5269,13 +5892,23 @@
         <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F20" s="8">
+        <v>-0.161</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>56</v>
+      </c>
+      <c r="J20" s="8">
+        <v>512</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -5291,19 +5924,29 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F22" s="8">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I22" s="8">
+        <v>16</v>
+      </c>
+      <c r="J22" s="8">
+        <v>381</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -5313,13 +5956,23 @@
         <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I23" s="8">
+        <v>16</v>
+      </c>
+      <c r="J23" s="8">
+        <v>381</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -5337,19 +5990,29 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>8</v>
+      </c>
+      <c r="J25" s="8">
+        <v>196</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -5359,13 +6022,23 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F26" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I26" s="8">
+        <v>8</v>
+      </c>
+      <c r="J26" s="8">
+        <v>196</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -5379,13 +6052,13 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>76</v>
+    <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>58</v>
@@ -5393,11 +6066,21 @@
       <c r="E28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="F28" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45</v>
+      </c>
+      <c r="J28" s="8">
+        <v>362</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -5409,11 +6092,21 @@
       <c r="E29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+      <c r="F29" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-0.315</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45</v>
+      </c>
+      <c r="J29" s="8">
+        <v>362</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -5437,13 +6130,23 @@
         <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I31" s="8">
+        <v>59</v>
+      </c>
+      <c r="J31" s="8">
+        <v>576</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -5453,13 +6156,23 @@
         <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F32" s="8">
+        <v>-0.161</v>
+      </c>
+      <c r="G32" s="8">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I32" s="8">
+        <v>59</v>
+      </c>
+      <c r="J32" s="8">
+        <v>576</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -5477,19 +6190,29 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F34" s="8">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <v>-0.38100000000000001</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="I34" s="8">
+        <v>19</v>
+      </c>
+      <c r="J34" s="8">
+        <v>160</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -5499,13 +6222,23 @@
         <v>60</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.151</v>
+      </c>
+      <c r="G35" s="8">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="I35" s="8">
+        <v>19</v>
+      </c>
+      <c r="J35" s="8">
+        <v>160</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -5523,19 +6256,29 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I37" s="8">
+        <v>8</v>
+      </c>
+      <c r="J37" s="8">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
@@ -5545,13 +6288,23 @@
         <v>60</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F38" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G38" s="12">
+        <v>-0.90900000000000003</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="I38" s="12">
+        <v>8</v>
+      </c>
+      <c r="J38" s="12">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -5665,10 +6418,10 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -5873,7 +6626,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
@@ -5918,7 +6671,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>58</v>
@@ -6052,11 +6805,11 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>58</v>
@@ -6255,19 +7008,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -6585,8 +7338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B90FCF-B9E6-465E-ABAB-9F9673716660}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6686,16 +7439,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>63</v>
@@ -6721,7 +7474,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>63</v>
@@ -6761,13 +7514,23 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -6777,13 +7540,23 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.44400000000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="I8" s="8">
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
@@ -6809,11 +7582,21 @@
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="8">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="I10" s="8">
+        <v>98</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1626</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -6825,11 +7608,21 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="8">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>98</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1626</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -6852,13 +7645,23 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="I13" s="8">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1080</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -6868,13 +7671,23 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="8">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>58</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1080</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -6888,25 +7701,35 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
+    <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F16" s="8">
+        <v>-0.111</v>
+      </c>
+      <c r="G16" s="8">
+        <v>-0.309</v>
+      </c>
+      <c r="H16" s="8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>11</v>
+      </c>
+      <c r="J16" s="8">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -6916,12 +7739,23 @@
         <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F17" s="8">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>-0.69299999999999995</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I17" s="8">
+        <v>11</v>
+      </c>
+      <c r="J17" s="13">
+        <v>95</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -6945,13 +7779,23 @@
         <v>58</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F19" s="8">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.12</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="I19" s="8">
+        <v>28</v>
+      </c>
+      <c r="J19" s="8">
+        <v>456</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -6961,13 +7805,23 @@
         <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="8">
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="I20" s="8">
+        <v>28</v>
+      </c>
+      <c r="J20" s="8">
+        <v>456</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -6991,11 +7845,21 @@
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="F22" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I22" s="8">
+        <v>39</v>
+      </c>
+      <c r="J22" s="8">
+        <v>361</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -7007,11 +7871,21 @@
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="F23" s="8">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="G23" s="8">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>39</v>
+      </c>
+      <c r="J23" s="8">
+        <v>361</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -7035,13 +7909,23 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I25" s="8">
+        <v>17</v>
+      </c>
+      <c r="J25" s="8">
+        <v>279</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -7051,13 +7935,23 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="I26" s="8">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8">
+        <v>279</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -7071,25 +7965,35 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>76</v>
+    <row r="28" spans="1:10" ht="39" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>116</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="G28" s="8">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.309</v>
+      </c>
+      <c r="I28" s="8">
+        <v>14</v>
+      </c>
+      <c r="J28" s="8">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -7099,13 +8003,23 @@
         <v>60</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F29" s="8">
+        <v>-0.191</v>
+      </c>
+      <c r="G29" s="8">
+        <v>-0.752</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="I29" s="8">
+        <v>14</v>
+      </c>
+      <c r="J29" s="8">
+        <v>109</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -7129,13 +8043,23 @@
         <v>58</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I31" s="8">
+        <v>17</v>
+      </c>
+      <c r="J31" s="8">
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -7145,13 +8069,23 @@
         <v>60</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F32" s="8">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="G32" s="8">
+        <v>-0.77100000000000002</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="I32" s="8">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8">
+        <v>147</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
@@ -7177,11 +8111,21 @@
       <c r="E34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
+      <c r="F34" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0.442</v>
+      </c>
+      <c r="I34" s="8">
+        <v>81</v>
+      </c>
+      <c r="J34" s="8">
+        <v>693</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
@@ -7193,11 +8137,21 @@
       <c r="E35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="F35" s="8">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G35" s="8">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1.018</v>
+      </c>
+      <c r="I35" s="8">
+        <v>81</v>
+      </c>
+      <c r="J35" s="8">
+        <v>693</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
@@ -7221,13 +8175,23 @@
         <v>58</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="F37" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="I37" s="8">
+        <v>19</v>
+      </c>
+      <c r="J37" s="8">
+        <v>198</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
@@ -7237,13 +8201,23 @@
         <v>60</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F38" s="12">
+        <v>-0.109</v>
+      </c>
+      <c r="G38" s="12">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="I38" s="12">
+        <v>19</v>
+      </c>
+      <c r="J38" s="12">
+        <v>198</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -7254,62 +8228,104 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C8A81A-CDBD-46CE-ACD7-3D1E08E25B42}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.4140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>114</v>
-      </c>
+    <row r="1" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K11" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7318,36 +8334,37 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -7385,42 +8402,62 @@
         <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>97.9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -7431,10 +8468,14 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>30</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -7445,10 +8486,14 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="E7" s="8">
+        <v>166</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -7461,24 +8506,42 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="J8" s="4">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>19</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -7488,10 +8551,14 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>29</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -7504,23 +8571,41 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>18</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -7531,10 +8616,14 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>30</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -7547,24 +8636,42 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>61.4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>60.6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -7575,10 +8682,14 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>17</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -7591,24 +8702,50 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D17" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -7616,22 +8753,53 @@
         <v>37</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>63.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="11">
+        <v>58</v>
+      </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -7650,21 +8818,875 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E973CF2-6EA7-493C-89EA-3654EE00F181}">
-  <dimension ref="A1:N38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3A2E1-7313-456B-9DE7-9CB4C4205276}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="6" max="6" width="5.58203125" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42">
+        <v>20.093491646808999</v>
+      </c>
+      <c r="F3" s="43">
+        <v>4.3326512023743803E-5</v>
+      </c>
+      <c r="G3" s="42">
+        <v>1.27</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="44">
+        <v>20.696547233732801</v>
+      </c>
+      <c r="F4" s="43">
+        <v>3.6369025923424899E-4</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1.349</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.601</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44">
+        <v>18.458805739248199</v>
+      </c>
+      <c r="F5" s="43">
+        <v>9.8111804275664795E-5</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1.165</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>18.060972202411801</v>
+      </c>
+      <c r="F6" s="43">
+        <v>4.2729541774524802E-4</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="42">
+        <v>17.735620007896198</v>
+      </c>
+      <c r="F7" s="43">
+        <v>4.9866740912747197E-4</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1.155</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>4.0590528372782497</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.13139773393357501</v>
+      </c>
+      <c r="G8" s="42">
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.202</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="44">
+        <v>7.212647052706</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0.12506852558326301</v>
+      </c>
+      <c r="G9" s="42">
+        <v>8.3279999999999994</v>
+      </c>
+      <c r="H9" s="1">
+        <v>26.376999999999999</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>2.3744015035383201</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0.305074047921922</v>
+      </c>
+      <c r="G10" s="42">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="44">
+        <v>8.9044801217504297</v>
+      </c>
+      <c r="F11" s="43">
+        <v>3.0588206182705399E-2</v>
+      </c>
+      <c r="G11" s="42">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>23.027000000000001</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="44">
+        <v>5.6879722413171701</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.12781821519606201</v>
+      </c>
+      <c r="G12" s="42">
+        <v>6.2649999999999997</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42">
+        <v>4.7303013312844797</v>
+      </c>
+      <c r="F13" s="43">
+        <v>9.3935146503078507E-2</v>
+      </c>
+      <c r="G13" s="42">
+        <v>2.8919999999999999</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.421</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="44">
+        <v>5.1286134231149099</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.27435369498787998</v>
+      </c>
+      <c r="G14" s="42">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
+        <v>10.1527700298026</v>
+      </c>
+      <c r="F15" s="43">
+        <v>6.2424345846175304E-3</v>
+      </c>
+      <c r="G15" s="42">
+        <v>6.1210000000000004</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11.845000000000001</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="38">
+        <v>2</v>
+      </c>
+      <c r="E16" s="44">
+        <v>5.96775951689854</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.11318937389710799</v>
+      </c>
+      <c r="G16" s="42">
+        <v>3.6309999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.5659999999999998</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="44">
+        <v>6.1635500646192396</v>
+      </c>
+      <c r="F17" s="43">
+        <v>0.103918686382013</v>
+      </c>
+      <c r="G17" s="44">
+        <v>4.069</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.8129999999999997</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>1.4370769367071301</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.48746417990899399</v>
+      </c>
+      <c r="G18" s="44">
+        <v>2.117</v>
+      </c>
+      <c r="H18" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44">
+        <v>1.6229417043594601</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0.65419920215310301</v>
+      </c>
+      <c r="G19" s="44">
+        <v>2.6440000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44">
+        <v>3.7631924382355399</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.152346732802847</v>
+      </c>
+      <c r="G20" s="44">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.6750000000000007</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="44">
+        <v>5.7235954849895796</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0.12586022950117401</v>
+      </c>
+      <c r="G21" s="44">
+        <v>8.6329999999999991</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13.324</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44">
+        <v>3.65714479332172</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0.16064273826352701</v>
+      </c>
+      <c r="G22" s="44">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1.90720981068213</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0.38534936857258401</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7.5629999999999997</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1.31814324536461</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0.72482935835677298</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0.14869424772027101</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0.92834938568178504</v>
+      </c>
+      <c r="G25" s="44">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.86749753011119202</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0.83326345992573103</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0.38</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.286751036891295</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0.86642864785940299</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0.129</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="44">
+        <v>6.3772112819843798</v>
+      </c>
+      <c r="F28" s="43">
+        <v>4.1229319350727399E-2</v>
+      </c>
+      <c r="G28" s="44">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.006</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44">
+        <v>10.494809365309001</v>
+      </c>
+      <c r="F29" s="43">
+        <v>1.4796149580112E-2</v>
+      </c>
+      <c r="G29" s="44">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="H29" s="1">
+        <v>8.2639999999999993</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="44">
+        <v>5.9312927813507299</v>
+      </c>
+      <c r="F30" s="43">
+        <v>5.1527151807777297E-2</v>
+      </c>
+      <c r="G30" s="44">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="44">
+        <v>6.0541579929118097</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0.109004845579229</v>
+      </c>
+      <c r="G31" s="43">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2</v>
+      </c>
+      <c r="E32" s="45">
+        <v>6.5162026430483699</v>
+      </c>
+      <c r="F32" s="45">
+        <v>8.9025697276740604E-2</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="H32" s="11">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="8"/>
+      <c r="J37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E758A58-1D99-402D-B07F-F171AD7F81BA}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
@@ -7672,18 +9694,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -7696,234 +9716,1037 @@
         <v>53</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="4"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42">
+        <v>8.1818837313028006</v>
+      </c>
+      <c r="F3" s="43">
+        <v>1.6723474871908901E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="42">
+        <v>3.0262181562953199</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.55344748190370396</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="4"/>
       <c r="L4" s="4"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1.5936665308881699</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.45075412503704698</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="4"/>
       <c r="L5" s="4"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>4.8188200866726403</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0.18555503181675301</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="42">
+        <v>2.6844959366468402</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.61193033791892604</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.3E-2</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.89292860536646801</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.63988660201227998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.32428672395427799</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0.988192921161821</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.4E-2</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>8.3328838079523695E-2</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0.95919161301159195</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="42">
+        <v>1.14407033570995</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.76644737034331301</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.869</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42">
+        <v>1.15792199575421</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.76311301491938099</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.887</v>
+      </c>
+      <c r="H12" s="4">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42">
+        <v>9.1843691651260198</v>
+      </c>
+      <c r="F13" s="43">
+        <v>1.0130702825126001E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="H13" s="4">
+        <v>17.286999999999999</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="42">
+        <v>4.6402989331427298</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.32623422806658597</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.2610000000000001</v>
+      </c>
       <c r="I14" s="8"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="42">
+        <v>3.3669644541425301</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.18572610820079499</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.66</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D16" s="38">
+        <v>2</v>
+      </c>
+      <c r="E16" s="42">
+        <v>9.4697892321468409</v>
+      </c>
+      <c r="F16" s="43">
+        <v>2.3654933672801502E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.1379999999999999</v>
+      </c>
+      <c r="H16" s="4">
+        <v>17.274999999999999</v>
+      </c>
       <c r="I16" s="8"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="8"/>
+    <row r="17" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="45">
+        <v>3.9620669228148802</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0.41116387477216498</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2.032</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3.544</v>
+      </c>
       <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
       <c r="F18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="8"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="8" t="s">
-        <v>81</v>
-      </c>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
       <c r="F19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="4"/>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E973CF2-6EA7-493C-89EA-3654EE00F181}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="A2:H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="6.4140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="42">
+        <v>1.0193947728916</v>
+      </c>
+      <c r="F3" s="43">
+        <v>0.60067732441160504</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="44">
+        <v>2.7829040111795398</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.59478737490648903</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="44">
+        <v>2.25713242016083</v>
+      </c>
+      <c r="F5" s="43">
+        <v>0.32349675044613002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.441</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="44">
+        <v>4.25998990687562</v>
+      </c>
+      <c r="F6" s="43">
+        <v>0.234723968279026</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.7530000000000001</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="42">
+        <v>2.2266809680608399</v>
+      </c>
+      <c r="F7" s="43">
+        <v>0.69414762799411101</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.436</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="44">
+        <v>1.25081137274145</v>
+      </c>
+      <c r="F8" s="43">
+        <v>0.53504432429375504</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1.0287794844545699</v>
+      </c>
+      <c r="F9" s="43">
+        <v>0.90540113098418196</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1.6157426203306799</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0.44580603967914201</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.879</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1.11277532666668</v>
+      </c>
+      <c r="F11" s="43">
+        <v>0.77399099850306297</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="44">
+        <v>5.3474068282174203</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0.25347168557222499</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.5460000000000003</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="42">
+        <v>2.2975733203150699</v>
+      </c>
+      <c r="F13" s="43">
+        <v>0.31702119055653399</v>
+      </c>
+      <c r="G13" s="4">
+        <v>6.2690000000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>20.751000000000001</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="8">
+        <v>3</v>
+      </c>
+      <c r="E14" s="44">
+        <v>1.0736877160032099</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0.89842415663327801</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.6760000000000002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6.2060000000000004</v>
+      </c>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0.48740811233298897</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0.78371953691023699</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0.83458477022248301</v>
+      </c>
+      <c r="F16" s="43">
+        <v>0.658828260205924</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="44">
+        <v>19.687179788731701</v>
+      </c>
+      <c r="F17" s="43">
+        <v>5.7564708648853897E-4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>59.579000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>85.013000000000005</v>
+      </c>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0.35262767613197199</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.83835483438632097</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="44">
+        <v>2.4070056744636799</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0.49233185097719401</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8.0410000000000004</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="4"/>
+    </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44">
+        <v>2.3162020845721298</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.31408204346386798</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.8879999999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7.3090000000000002</v>
+      </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="44">
+        <v>5.5904286267263599</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0.133328921736</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="H21" s="1">
+        <v>27.353000000000002</v>
+      </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1.75081257029045</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0.78146808836136405</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.218</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9.0079999999999991</v>
+      </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -7931,38 +10754,107 @@
         <v>45</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="H23" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>3.7111450016744301</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0.156363398868686</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="4">
+        <v>32.667000000000002</v>
+      </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0.63912097332486895</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0.72646825940664295</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.6240000000000001</v>
+      </c>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0.49010381210335602</v>
+      </c>
+      <c r="F25" s="43">
+        <v>0.78266391219403597</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.84599999999999997</v>
+      </c>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0.63912097332486895</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0.72646825940664295</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.113</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.6240000000000001</v>
+      </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="44">
+        <v>5.1260531756062999</v>
+      </c>
+      <c r="F27" s="43">
+        <v>0.16279621423459101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10.494999999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>39.412999999999997</v>
+      </c>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -7970,39 +10862,107 @@
         <v>46</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="H28" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0.46041678365067601</v>
+      </c>
+      <c r="F28" s="43">
+        <v>0.927497521838623</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.3789999999999996</v>
+      </c>
+      <c r="H28" s="4">
+        <v>36.542999999999999</v>
+      </c>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0.46041678365067601</v>
+      </c>
+      <c r="F29" s="43">
+        <v>0.927497521838623</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.3789999999999996</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11.031000000000001</v>
+      </c>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0.43514495317089102</v>
+      </c>
+      <c r="F30" s="43">
+        <v>0.80446929761910901</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7.0679999999999996</v>
+      </c>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1.3726831355844999</v>
+      </c>
+      <c r="F31" s="43">
+        <v>0.50341441178749102</v>
+      </c>
+      <c r="G31" s="8">
+        <v>18.79</v>
+      </c>
+      <c r="H31" s="1">
+        <v>65.421999999999997</v>
+      </c>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="44">
+        <v>3.14504842338865</v>
+      </c>
+      <c r="F32" s="43">
+        <v>0.36979769060237599</v>
+      </c>
+      <c r="G32" s="1">
+        <v>39.250999999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>52.091999999999999</v>
+      </c>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -8010,43 +10970,109 @@
         <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="44">
+        <v>2.66693359411761</v>
+      </c>
+      <c r="F33" s="43">
+        <v>0.26356195980721597</v>
+      </c>
+      <c r="G33" s="1">
+        <v>19.335999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>43.579000000000001</v>
+      </c>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="44">
+        <v>14.0230996537279</v>
+      </c>
+      <c r="F34" s="43">
+        <v>2.8738782080984298E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>73.695999999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>96.796999999999997</v>
+      </c>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="44">
+        <v>2.4557607713779599</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0.29291278227658302</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16.376000000000001</v>
+      </c>
+      <c r="H35" s="1">
+        <v>37.750999999999998</v>
+      </c>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0.60296450266721002</v>
+      </c>
+      <c r="F36" s="43">
+        <v>0.73972095529859005</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.51</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.92</v>
+      </c>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="45">
+        <v>2.54916490230451</v>
+      </c>
+      <c r="F37" s="45">
+        <v>0.27954766866258401</v>
+      </c>
+      <c r="G37" s="11">
+        <v>12.46</v>
+      </c>
+      <c r="H37" s="11">
+        <v>15.673</v>
+      </c>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -8060,961 +11086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3A2E1-7313-456B-9DE7-9CB4C4205276}">
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I37" s="8"/>
-      <c r="J37" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E758A58-1D99-402D-B07F-F171AD7F81BA}">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712C001D-F815-477F-B9DB-DD71176CC495}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9032,19 +11109,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -9213,16 +11290,17 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.9140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
@@ -9231,18 +11309,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -9280,42 +11358,62 @@
         <v>49</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="D4" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4">
+        <v>67.900000000000006</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -9326,10 +11424,14 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="E6" s="8">
+        <v>29</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -9340,10 +11442,14 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E7" s="8">
+        <v>95</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -9352,28 +11458,46 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>59.1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>49.1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -9383,10 +11507,14 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.185</v>
+      </c>
+      <c r="E10" s="8">
+        <v>24</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -9395,27 +11523,45 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>63.4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>39.700000000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.112</v>
+      </c>
+      <c r="E12" s="8">
+        <v>21</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -9426,10 +11572,14 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.187</v>
+      </c>
+      <c r="E13" s="11">
+        <v>71</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -9530,19 +11680,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">

--- a/results/Results Tables.xlsx
+++ b/results/Results Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86188\Dropbox\MA_exercise_Yefeng\Scripts\Intergenerational_effect_of_exercise_MA_Git\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BFA8F3-9E01-4EB6-9CDF-08191FC02B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AD8D07-57F4-4F37-A5FC-EC450387250A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANOVA" sheetId="8" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="116">
   <si>
     <t>Effect size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Neurobehavior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Learning-MWM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,19 +192,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Brain development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brain size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Neurogenesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Growth factors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,32 +283,14 @@
     <t>-</t>
   </si>
   <si>
-    <t>I2 trait cateforoy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I2 between-study</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2 within-study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brain development</t>
   </si>
   <si>
     <t>Brain size</t>
   </si>
   <si>
     <t>Neurogenesis</t>
-  </si>
-  <si>
-    <t>within-study</t>
-  </si>
-  <si>
-    <t>Brain Growth factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Brain growth factors</t>
@@ -364,9 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Growth factors</t>
-  </si>
-  <si>
     <t>BDNF</t>
   </si>
   <si>
@@ -393,10 +360,6 @@
   </si>
   <si>
     <t>strain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>within-study</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,15 +434,7 @@
     <t>Maximum lnRR</t>
   </si>
   <si>
-    <t>Neurobehavior</t>
-  </si>
-  <si>
     <t>Brain growth factors</t>
-  </si>
-  <si>
-    <t>Brain 
-development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Brain 
@@ -497,6 +452,42 @@
   </si>
   <si>
     <t>I2 trait categoroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain 
+structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brain structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cognition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>residual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2 residual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,15 +725,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513B72A-4787-4F44-B427-A7BA5E849F06}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1061,7 @@
         <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1079,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1090,7 +1081,7 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1101,7 +1092,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1112,7 +1103,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1133,10 +1124,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1147,7 +1138,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1158,7 +1149,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1179,10 +1170,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1193,7 +1184,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1204,7 +1195,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1228,7 +1219,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1239,7 +1230,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1250,7 +1241,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1271,10 +1262,10 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1285,7 +1276,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1296,7 +1287,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1317,10 +1308,10 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1330,10 +1321,10 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1354,10 +1345,10 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1370,7 +1361,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1389,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE929E5F-CDBF-4689-B4E8-74771374295B}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1408,18 +1399,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -1434,7 +1425,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -1454,30 +1445,30 @@
         <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -1505,7 +1496,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8">
         <v>0.23699999999999999</v>
@@ -1523,7 +1514,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -1541,7 +1532,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8">
         <v>0.372</v>
@@ -1557,11 +1548,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8">
         <v>0.496</v>
@@ -1590,7 +1581,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8">
         <v>0.25600000000000001</v>
@@ -1608,7 +1599,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8">
         <v>0.13300000000000001</v>
@@ -1624,11 +1615,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -1656,7 +1647,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -1675,7 +1666,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8">
         <v>0.313</v>
@@ -1691,11 +1682,11 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8">
         <v>3.6999999999999998E-2</v>
@@ -1724,7 +1715,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -1743,7 +1734,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D16" s="8">
         <v>0.309</v>
@@ -1759,11 +1750,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D17" s="33">
         <v>0</v>
@@ -1790,7 +1781,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1">
         <v>0.438</v>
@@ -1802,7 +1793,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1">
         <v>0.39100000000000001</v>
@@ -1813,10 +1804,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
         <v>7.4999999999999997E-2</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1855,7 +1846,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1866,10 +1857,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1">
         <v>8.4000000000000005E-2</v>
@@ -1896,7 +1887,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>0.21</v>
@@ -1910,7 +1901,7 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D25" s="11">
         <v>6.8000000000000005E-2</v>
@@ -1940,7 +1931,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A4" sqref="A4:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1982,7 +1973,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -1991,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2026,13 +2017,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2075,7 +2066,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -2117,10 +2108,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2162,7 +2153,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -2204,10 +2195,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -2249,7 +2240,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -2387,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D1D0A-B2F5-4667-90E5-9E1BBD13B9F5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2430,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -2439,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2474,13 +2465,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2523,13 +2514,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -2544,7 +2535,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -2565,10 +2556,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -2610,13 +2601,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2631,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -2652,10 +2643,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -2697,13 +2688,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -2721,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -2836,7 +2827,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2881,7 +2872,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -2890,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -2926,13 +2917,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -2978,7 +2969,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -3024,7 +3015,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -3068,11 +3059,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -3118,7 +3109,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -3164,7 +3155,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -3208,11 +3199,11 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
@@ -3258,7 +3249,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
@@ -3304,7 +3295,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -3346,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD95BEBB-C62E-44DA-AB2F-793CA98A0EFD}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3392,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -3401,7 +3392,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -3437,13 +3428,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -3509,13 +3500,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8">
         <v>-3.4000000000000002E-2</v>
@@ -3541,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8">
         <v>0.20100000000000001</v>
@@ -3575,13 +3566,13 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F10" s="8">
         <v>5.3999999999999999E-2</v>
@@ -3607,7 +3598,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F11" s="8">
         <v>-7.6999999999999999E-2</v>
@@ -3639,11 +3630,11 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -3709,13 +3700,13 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F16" s="8">
         <v>-2.1999999999999999E-2</v>
@@ -3741,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F17" s="8">
         <v>0.28399999999999997</v>
@@ -3775,13 +3766,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8">
         <v>-3.3000000000000002E-2</v>
@@ -3807,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F20" s="8">
         <v>0.29299999999999998</v>
@@ -3839,17 +3830,17 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8">
         <v>0.23599999999999999</v>
@@ -3875,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="8">
         <v>0.34899999999999998</v>
@@ -3909,13 +3900,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F25" s="8">
         <v>-2.1000000000000001E-2</v>
@@ -3941,7 +3932,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F26" s="8">
         <v>-0.46800000000000003</v>
@@ -3975,13 +3966,13 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F28" s="8">
         <v>5.2999999999999999E-2</v>
@@ -4007,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F29" s="12">
         <v>-3.5999999999999997E-2</v>
@@ -4037,7 +4028,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4077,7 +4068,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -4086,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -4118,13 +4109,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -4161,7 +4152,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -4197,10 +4188,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -4236,7 +4227,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -4272,10 +4263,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -4311,7 +4302,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="38" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
@@ -4354,7 +4345,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4394,7 +4385,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -4403,7 +4394,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -4435,13 +4426,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -4498,13 +4489,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8">
         <v>-0.10199999999999999</v>
@@ -4527,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8">
         <v>0.107</v>
@@ -4554,10 +4545,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -4613,13 +4604,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="38" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8">
         <v>-9.4E-2</v>
@@ -4642,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8">
         <v>0.42499999999999999</v>
@@ -4669,10 +4660,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -4728,13 +4719,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="38" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F19" s="8">
         <v>1.6E-2</v>
@@ -4760,7 +4751,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F20" s="12">
         <v>-3.2000000000000001E-2</v>
@@ -4790,7 +4781,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4839,7 +4830,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -4848,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -4879,13 +4870,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -4977,7 +4968,7 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -5022,7 +5013,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="10" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -5066,17 +5057,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -5089,10 +5080,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -5118,10 +5109,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -5134,10 +5125,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -5159,13 +5150,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -5178,10 +5169,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -5205,13 +5196,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -5224,10 +5215,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -5249,17 +5240,17 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -5272,10 +5263,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -5302,10 +5293,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -5318,10 +5309,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -5345,13 +5336,13 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -5364,10 +5355,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -5391,13 +5382,13 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -5410,10 +5401,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -5433,8 +5424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5215D2A-F7A1-496A-8A0D-30ED537A4C6D}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5483,7 +5474,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -5492,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -5523,13 +5514,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -5601,7 +5592,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8">
         <v>1.2E-2</v>
@@ -5627,7 +5618,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8">
         <v>5.3999999999999999E-2</v>
@@ -5661,13 +5652,13 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F10" s="8">
         <v>-0.17</v>
@@ -5693,7 +5684,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F11" s="8">
         <v>3.6999999999999998E-2</v>
@@ -5726,13 +5717,13 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8">
         <v>0.19600000000000001</v>
@@ -5758,7 +5749,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8">
         <v>0.35599999999999998</v>
@@ -5788,19 +5779,19 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>114</v>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8">
         <v>0.23799999999999999</v>
@@ -5823,10 +5814,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8">
         <v>0.371</v>
@@ -5863,10 +5854,10 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8">
         <v>4.8000000000000001E-2</v>
@@ -5889,10 +5880,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F20" s="8">
         <v>-0.161</v>
@@ -5924,13 +5915,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F22" s="8">
         <v>-0.13300000000000001</v>
@@ -5953,10 +5944,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F23" s="8">
         <v>0.151</v>
@@ -5990,13 +5981,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F25" s="8">
         <v>-1.6E-2</v>
@@ -6019,10 +6010,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="38"/>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F26" s="8">
         <v>8.9999999999999993E-3</v>
@@ -6054,17 +6045,17 @@
     </row>
     <row r="28" spans="1:10" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="8">
         <v>0.23799999999999999</v>
@@ -6087,10 +6078,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="8">
         <v>0.371</v>
@@ -6127,10 +6118,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F31" s="8">
         <v>4.8000000000000001E-2</v>
@@ -6153,10 +6144,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F32" s="8">
         <v>-0.161</v>
@@ -6190,13 +6181,13 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="38" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F34" s="8">
         <v>-0.13300000000000001</v>
@@ -6219,10 +6210,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F35" s="8">
         <v>0.151</v>
@@ -6256,13 +6247,13 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="38" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F37" s="8">
         <v>-1.6E-2</v>
@@ -6285,10 +6276,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F38" s="12">
         <v>8.9999999999999993E-3</v>
@@ -6318,7 +6309,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6366,7 +6357,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -6375,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -6415,13 +6406,13 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -6430,19 +6421,19 @@
         <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -6456,19 +6447,19 @@
         <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -6487,7 +6478,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -6622,17 +6613,17 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -6645,10 +6636,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -6671,13 +6662,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -6690,10 +6681,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -6718,10 +6709,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -6734,10 +6725,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -6764,10 +6755,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -6780,10 +6771,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -6805,17 +6796,17 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -6828,10 +6819,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -6855,13 +6846,13 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -6874,10 +6865,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="10"/>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -6904,10 +6895,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -6920,10 +6911,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="10"/>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -6950,10 +6941,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -6966,10 +6957,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
@@ -6990,7 +6981,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7008,19 +6999,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -7066,10 +7057,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -7111,7 +7102,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -7154,7 +7145,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -7197,7 +7188,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -7240,7 +7231,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -7283,7 +7274,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
@@ -7338,8 +7329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B90FCF-B9E6-465E-ABAB-9F9673716660}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7387,7 +7378,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>0</v>
@@ -7396,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -7436,34 +7427,34 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -7474,22 +7465,22 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -7508,13 +7499,13 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8">
         <v>3.5999999999999997E-2</v>
@@ -7540,7 +7531,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F8" s="8">
         <v>-9.5000000000000001E-2</v>
@@ -7645,7 +7636,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F13" s="8">
         <v>3.7999999999999999E-2</v>
@@ -7671,7 +7662,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8">
         <v>-5.3999999999999999E-2</v>
@@ -7703,17 +7694,17 @@
     </row>
     <row r="16" spans="1:19" ht="26" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F16" s="8">
         <v>-0.111</v>
@@ -7736,10 +7727,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F17" s="8">
         <v>-1.9E-2</v>
@@ -7773,13 +7764,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8">
         <v>-4.0000000000000001E-3</v>
@@ -7802,10 +7793,10 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F20" s="8">
         <v>0.12</v>
@@ -7840,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
@@ -7866,7 +7857,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
@@ -7906,10 +7897,10 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F25" s="8">
         <v>3.5999999999999997E-2</v>
@@ -7932,10 +7923,10 @@
       <c r="B26" s="4"/>
       <c r="C26" s="38"/>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F26" s="8">
         <v>0.28199999999999997</v>
@@ -7967,17 +7958,17 @@
     </row>
     <row r="28" spans="1:10" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="38" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F28" s="8">
         <v>0.108</v>
@@ -8000,10 +7991,10 @@
       <c r="B29" s="4"/>
       <c r="C29" s="38"/>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F29" s="8">
         <v>-0.191</v>
@@ -8037,13 +8028,13 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F31" s="8">
         <v>1.4999999999999999E-2</v>
@@ -8066,10 +8057,10 @@
       <c r="B32" s="4"/>
       <c r="C32" s="38"/>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F32" s="8">
         <v>-0.26200000000000001</v>
@@ -8106,10 +8097,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F34" s="8">
         <v>0.23100000000000001</v>
@@ -8132,10 +8123,10 @@
       <c r="B35" s="4"/>
       <c r="C35" s="38"/>
       <c r="D35" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F35" s="8">
         <v>0.38100000000000001</v>
@@ -8172,10 +8163,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F37" s="8">
         <v>8.8999999999999996E-2</v>
@@ -8198,10 +8189,10 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F38" s="12">
         <v>-0.109</v>
@@ -8231,7 +8222,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8245,22 +8236,22 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -8268,7 +8259,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8276,7 +8267,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8284,7 +8275,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8292,7 +8283,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -8300,7 +8291,7 @@
     </row>
     <row r="7" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -8334,7 +8325,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8353,18 +8344,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -8379,7 +8370,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -8399,30 +8390,30 @@
         <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -8450,7 +8441,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -8468,7 +8459,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8486,7 +8477,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8">
         <v>0.26</v>
@@ -8502,11 +8493,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8534,7 +8525,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8">
         <v>8.1000000000000003E-2</v>
@@ -8551,7 +8542,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8">
         <v>5.1999999999999998E-2</v>
@@ -8567,11 +8558,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -8598,7 +8589,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -8616,7 +8607,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -8632,11 +8623,11 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -8664,7 +8655,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D15" s="8">
         <v>0.27900000000000003</v>
@@ -8682,7 +8673,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D16" s="8">
         <v>3.0000000000000001E-3</v>
@@ -8698,11 +8689,11 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D17" s="10">
         <v>6.0000000000000001E-3</v>
@@ -8728,7 +8719,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -8739,7 +8730,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1">
         <v>0.20200000000000001</v>
@@ -8750,10 +8741,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -8779,7 +8770,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -8792,7 +8783,7 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D22" s="11">
         <v>0.18</v>
@@ -8821,8 +8812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A3A2E1-7313-456B-9DE7-9CB4C4205276}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8835,16 +8826,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -8854,22 +8845,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="4"/>
@@ -8879,21 +8870,21 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>20.093491646808999</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <v>4.3326512023743803E-5</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>1.27</v>
       </c>
       <c r="H3" s="4">
@@ -8906,18 +8897,18 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>20.696547233732801</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>3.6369025923424899E-4</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>1.349</v>
       </c>
       <c r="H4" s="1">
@@ -8930,18 +8921,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>18.458805739248199</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>9.8111804275664795E-5</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>1.165</v>
       </c>
       <c r="H5" s="1">
@@ -8954,18 +8945,18 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>18.060972202411801</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>4.2729541774524802E-4</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>1.1539999999999999</v>
       </c>
       <c r="H6" s="1">
@@ -8977,21 +8968,21 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>17.735620007896198</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>4.9866740912747197E-4</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>1.155</v>
       </c>
       <c r="H7" s="4">
@@ -9004,18 +8995,18 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>4.0590528372782497</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>0.13139773393357501</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="41">
         <v>4.5789999999999997</v>
       </c>
       <c r="H8" s="1">
@@ -9028,18 +9019,18 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>7.212647052706</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>0.12506852558326301</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <v>8.3279999999999994</v>
       </c>
       <c r="H9" s="1">
@@ -9052,18 +9043,18 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>2.3744015035383201</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>0.305074047921922</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>2.7330000000000001</v>
       </c>
       <c r="H10" s="1">
@@ -9076,18 +9067,18 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>8.9044801217504297</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>3.0588206182705399E-2</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="41">
         <v>11.082000000000001</v>
       </c>
       <c r="H11" s="1">
@@ -9100,18 +9091,18 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>5.6879722413171701</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.12781821519606201</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>6.2649999999999997</v>
       </c>
       <c r="H12" s="1">
@@ -9123,21 +9114,21 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>4.7303013312844797</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>9.3935146503078507E-2</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>2.8919999999999999</v>
       </c>
       <c r="H13" s="4">
@@ -9150,18 +9141,18 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <v>5.1286134231149099</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>0.27435369498787998</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="41">
         <v>3.2149999999999999</v>
       </c>
       <c r="H14" s="1">
@@ -9174,18 +9165,18 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>10.1527700298026</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>6.2424345846175304E-3</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>6.1210000000000004</v>
       </c>
       <c r="H15" s="1">
@@ -9198,18 +9189,18 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D16" s="38">
         <v>2</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <v>5.96775951689854</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>0.11318937389710799</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="41">
         <v>3.6309999999999998</v>
       </c>
       <c r="H16" s="1">
@@ -9222,18 +9213,18 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>6.1635500646192396</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>0.103918686382013</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="43">
         <v>4.069</v>
       </c>
       <c r="H17" s="1">
@@ -9245,21 +9236,21 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>1.4370769367071301</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>0.48746417990899399</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <v>2.117</v>
       </c>
       <c r="H18" s="4">
@@ -9272,18 +9263,18 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>1.6229417043594601</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <v>0.65419920215310301</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="43">
         <v>2.6440000000000001</v>
       </c>
       <c r="H19" s="1">
@@ -9296,18 +9287,18 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>3.7631924382355399</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>0.152346732802847</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <v>8.7059999999999995</v>
       </c>
       <c r="H20" s="1">
@@ -9320,18 +9311,18 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>5.7235954849895796</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <v>0.12586022950117401</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="43">
         <v>8.6329999999999991</v>
       </c>
       <c r="H21" s="1">
@@ -9344,18 +9335,18 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>3.65714479332172</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>0.16064273826352701</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="43">
         <v>5.7110000000000003</v>
       </c>
       <c r="H22" s="1">
@@ -9367,21 +9358,21 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <v>1.90720981068213</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>0.38534936857258401</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="43">
         <v>0.83299999999999996</v>
       </c>
       <c r="H23" s="4">
@@ -9394,18 +9385,18 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <v>1.31814324536461</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>0.72482935835677298</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="43">
         <v>0.60699999999999998</v>
       </c>
       <c r="H24" s="1">
@@ -9418,18 +9409,18 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <v>0.14869424772027101</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>0.92834938568178504</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H25" s="1">
@@ -9442,18 +9433,18 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <v>0.86749753011119202</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <v>0.83326345992573103</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="43">
         <v>0.38</v>
       </c>
       <c r="H26" s="1">
@@ -9466,18 +9457,18 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="43">
         <v>0.286751036891295</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <v>0.86642864785940299</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="43">
         <v>0.129</v>
       </c>
       <c r="H27" s="1">
@@ -9489,21 +9480,21 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="43">
         <v>6.3772112819843798</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <v>4.1229319350727399E-2</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="43">
         <v>0.76100000000000001</v>
       </c>
       <c r="H28" s="4">
@@ -9516,18 +9507,18 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="43">
         <v>10.494809365309001</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <v>1.4796149580112E-2</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="43">
         <v>1.2689999999999999</v>
       </c>
       <c r="H29" s="1">
@@ -9540,18 +9531,18 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <v>5.9312927813507299</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>5.1527151807777297E-2</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="43">
         <v>0.70599999999999996</v>
       </c>
       <c r="H30" s="1">
@@ -9564,18 +9555,18 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="43">
         <v>6.0541579929118097</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>0.109004845579229</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="42">
         <v>0.72499999999999998</v>
       </c>
       <c r="H31" s="1">
@@ -9588,18 +9579,18 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D32" s="11">
         <v>2</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="44">
         <v>6.5162026430483699</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="44">
         <v>8.9025697276740604E-2</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="44">
         <v>0.79700000000000004</v>
       </c>
       <c r="H32" s="11">
@@ -9675,7 +9666,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9694,16 +9685,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -9713,22 +9704,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="4"/>
@@ -9739,18 +9730,18 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>8.1818837313028006</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <v>1.6723474871908901E-2</v>
       </c>
       <c r="G3" s="4">
@@ -9766,15 +9757,15 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.0262181562953199</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>0.55344748190370396</v>
       </c>
       <c r="G4" s="4">
@@ -9792,15 +9783,15 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <v>1.5936665308881699</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>0.45075412503704698</v>
       </c>
       <c r="G5" s="4">
@@ -9818,15 +9809,15 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>4.8188200866726403</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>0.18555503181675301</v>
       </c>
       <c r="G6" s="4">
@@ -9842,18 +9833,18 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>2.6844959366468402</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>0.61193033791892604</v>
       </c>
       <c r="G7" s="4">
@@ -9870,15 +9861,15 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>0.89292860536646801</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>0.63988660201227998</v>
       </c>
       <c r="G8" s="4">
@@ -9895,15 +9886,15 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <v>0.32428672395427799</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>0.988192921161821</v>
       </c>
       <c r="G9" s="4">
@@ -9919,15 +9910,15 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>8.3328838079523695E-2</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>0.95919161301159195</v>
       </c>
       <c r="G10" s="4">
@@ -9943,15 +9934,15 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <v>1.14407033570995</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>0.76644737034331301</v>
       </c>
       <c r="G11" s="4">
@@ -9967,15 +9958,15 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8">
         <v>2</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>1.15792199575421</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.76311301491938099</v>
       </c>
       <c r="G12" s="4">
@@ -9990,18 +9981,18 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>9.1843691651260198</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>1.0130702825126001E-2</v>
       </c>
       <c r="G13" s="4">
@@ -10017,15 +10008,15 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>4.6402989331427298</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>0.32623422806658597</v>
       </c>
       <c r="G14" s="4">
@@ -10041,15 +10032,15 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <v>3.3669644541425301</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>0.18572610820079499</v>
       </c>
       <c r="G15" s="4">
@@ -10065,15 +10056,15 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D16" s="38">
         <v>2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>9.4697892321468409</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>2.3654933672801502E-2</v>
       </c>
       <c r="G16" s="4">
@@ -10089,15 +10080,15 @@
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="44">
         <v>3.9620669228148802</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="44">
         <v>0.41116387477216498</v>
       </c>
       <c r="G17" s="11">
@@ -10229,8 +10220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E973CF2-6EA7-493C-89EA-3654EE00F181}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="A2:H37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10249,16 +10240,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
@@ -10268,22 +10259,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="4"/>
@@ -10294,18 +10285,18 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="41">
         <v>1.0193947728916</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <v>0.60067732441160504</v>
       </c>
       <c r="G3" s="4">
@@ -10320,15 +10311,15 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="43">
         <v>2.7829040111795398</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>0.59478737490648903</v>
       </c>
       <c r="G4" s="4">
@@ -10345,15 +10336,15 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="43">
         <v>2.25713242016083</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>0.32349675044613002</v>
       </c>
       <c r="G5" s="4">
@@ -10370,15 +10361,15 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="43">
         <v>4.25998990687562</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>0.234723968279026</v>
       </c>
       <c r="G6" s="4">
@@ -10393,15 +10384,15 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <v>2.2266809680608399</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>0.69414762799411101</v>
       </c>
       <c r="G7" s="4">
@@ -10416,18 +10407,18 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>1.25081137274145</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="42">
         <v>0.53504432429375504</v>
       </c>
       <c r="G8" s="4">
@@ -10442,15 +10433,15 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>1.0287794844545699</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>0.90540113098418196</v>
       </c>
       <c r="G9" s="4">
@@ -10464,15 +10455,15 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="43">
         <v>1.6157426203306799</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>0.44580603967914201</v>
       </c>
       <c r="G10" s="4">
@@ -10486,15 +10477,15 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8">
         <v>2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <v>1.11277532666668</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>0.77399099850306297</v>
       </c>
       <c r="G11" s="4">
@@ -10508,15 +10499,15 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="43">
         <v>5.3474068282174203</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.25347168557222499</v>
       </c>
       <c r="G12" s="4">
@@ -10530,18 +10521,18 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <v>2.2975733203150699</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>0.31702119055653399</v>
       </c>
       <c r="G13" s="4">
@@ -10555,15 +10546,15 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="43">
         <v>1.0736877160032099</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>0.89842415663327801</v>
       </c>
       <c r="G14" s="4">
@@ -10576,15 +10567,15 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="43">
         <v>0.48740811233298897</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>0.78371953691023699</v>
       </c>
       <c r="G15" s="4">
@@ -10598,15 +10589,15 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D16" s="34">
         <v>1</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="43">
         <v>0.83458477022248301</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>0.658828260205924</v>
       </c>
       <c r="G16" s="4">
@@ -10620,15 +10611,15 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <v>19.687179788731701</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>5.7564708648853897E-4</v>
       </c>
       <c r="G17" s="1">
@@ -10641,18 +10632,18 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="43">
         <v>0.35262767613197199</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <v>0.83835483438632097</v>
       </c>
       <c r="G18" s="1">
@@ -10666,15 +10657,15 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="43">
         <v>2.4070056744636799</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <v>0.49233185097719401</v>
       </c>
       <c r="G19" s="1">
@@ -10688,15 +10679,15 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="43">
         <v>2.3162020845721298</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>0.31408204346386798</v>
       </c>
       <c r="G20" s="1">
@@ -10709,15 +10700,15 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <v>5.5904286267263599</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <v>0.133328921736</v>
       </c>
       <c r="G21" s="1">
@@ -10730,15 +10721,15 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>1.75081257029045</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>0.78146808836136405</v>
       </c>
       <c r="G22" s="1">
@@ -10751,18 +10742,18 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="43">
         <v>3.7111450016744301</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>0.156363398868686</v>
       </c>
       <c r="G23" s="1">
@@ -10775,15 +10766,15 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="43">
         <v>0.63912097332486895</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>0.72646825940664295</v>
       </c>
       <c r="G24" s="1">
@@ -10796,15 +10787,15 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="43">
         <v>0.49010381210335602</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>0.78266391219403597</v>
       </c>
       <c r="G25" s="1">
@@ -10817,15 +10808,15 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <v>0.63912097332486895</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="42">
         <v>0.72646825940664295</v>
       </c>
       <c r="G26" s="1">
@@ -10838,15 +10829,15 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="43">
         <v>5.1260531756062999</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <v>0.16279621423459101</v>
       </c>
       <c r="G27" s="1">
@@ -10859,18 +10850,18 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="43">
         <v>0.46041678365067601</v>
       </c>
-      <c r="F28" s="43">
+      <c r="F28" s="42">
         <v>0.927497521838623</v>
       </c>
       <c r="G28" s="1">
@@ -10883,15 +10874,15 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="43">
         <v>0.46041678365067601</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="42">
         <v>0.927497521838623</v>
       </c>
       <c r="G29" s="1">
@@ -10904,15 +10895,15 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <v>0.43514495317089102</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <v>0.80446929761910901</v>
       </c>
       <c r="G30" s="1">
@@ -10925,15 +10916,15 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="43">
         <v>1.3726831355844999</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="42">
         <v>0.50341441178749102</v>
       </c>
       <c r="G31" s="8">
@@ -10946,15 +10937,15 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="43">
         <v>3.14504842338865</v>
       </c>
-      <c r="F32" s="43">
+      <c r="F32" s="42">
         <v>0.36979769060237599</v>
       </c>
       <c r="G32" s="1">
@@ -10967,18 +10958,18 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="43">
         <v>2.66693359411761</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="42">
         <v>0.26356195980721597</v>
       </c>
       <c r="G33" s="1">
@@ -10991,15 +10982,15 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
       </c>
-      <c r="E34" s="44">
+      <c r="E34" s="43">
         <v>14.0230996537279</v>
       </c>
-      <c r="F34" s="43">
+      <c r="F34" s="42">
         <v>2.8738782080984298E-3</v>
       </c>
       <c r="G34" s="1">
@@ -11012,15 +11003,15 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C35" s="8" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="44">
+      <c r="E35" s="43">
         <v>2.4557607713779599</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42">
         <v>0.29291278227658302</v>
       </c>
       <c r="G35" s="1">
@@ -11033,15 +11024,15 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="44">
+      <c r="E36" s="43">
         <v>0.60296450266721002</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="42">
         <v>0.73972095529859005</v>
       </c>
       <c r="G36" s="1">
@@ -11056,15 +11047,15 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="44">
         <v>2.54916490230451</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="44">
         <v>0.27954766866258401</v>
       </c>
       <c r="G37" s="11">
@@ -11091,7 +11082,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11109,19 +11100,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -11167,10 +11158,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -11203,7 +11194,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -11236,7 +11227,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -11290,7 +11281,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11309,18 +11300,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -11335,7 +11326,7 @@
       <c r="D2" s="16"/>
       <c r="E2" s="15"/>
       <c r="F2" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
@@ -11355,30 +11346,30 @@
         <v>25</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8">
         <v>4.3999999999999997E-2</v>
@@ -11406,7 +11397,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -11424,7 +11415,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D6" s="8">
         <v>0.112</v>
@@ -11442,7 +11433,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D7" s="8">
         <v>0.33</v>
@@ -11458,11 +11449,11 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8">
         <v>3.6999999999999998E-2</v>
@@ -11490,7 +11481,7 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -11507,7 +11498,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8">
         <v>0.185</v>
@@ -11523,11 +11514,11 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -11554,7 +11545,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>0.112</v>
@@ -11572,7 +11563,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D13" s="11">
         <v>0.187</v>
@@ -11662,7 +11653,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -11680,19 +11671,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -11738,10 +11729,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -11774,7 +11765,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -11807,7 +11798,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -11840,7 +11831,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -11873,7 +11864,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -11906,7 +11897,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -11934,7 +11925,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
